--- a/SUMMARY SHEETS/generastats_biomassNMDS.xlsx
+++ b/SUMMARY SHEETS/generastats_biomassNMDS.xlsx
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.01438790293089752</v>
+        <v>-0.01438790293026175</v>
       </c>
       <c r="C2">
-        <v>-0.3002357263207114</v>
+        <v>-0.300235726320594</v>
       </c>
       <c r="D2">
-        <v>0.1752707071739573</v>
+        <v>0.1752707071735609</v>
       </c>
       <c r="E2">
-        <v>0.547</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.002148954847664833</v>
+        <v>0.002148954848209834</v>
       </c>
       <c r="C3">
-        <v>-0.2439047181145932</v>
+        <v>-0.2439047181147244</v>
       </c>
       <c r="D3">
-        <v>0.2442377461800324</v>
+        <v>0.2442377461798899</v>
       </c>
       <c r="E3">
-        <v>0.406</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.1486733016155627</v>
+        <v>0.1486733016153598</v>
       </c>
       <c r="C4">
-        <v>0.01175965133794513</v>
+        <v>0.01175965133814655</v>
       </c>
       <c r="D4">
-        <v>0.08618305527073424</v>
+        <v>0.08618305527041466</v>
       </c>
       <c r="E4">
-        <v>0.757</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -448,16 +448,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3311430442583792</v>
+        <v>-0.3311430442579126</v>
       </c>
       <c r="C5">
-        <v>-0.3758541626513478</v>
+        <v>-0.3758541626518847</v>
       </c>
       <c r="D5">
-        <v>0.2205720001327988</v>
+        <v>0.2205720001328407</v>
       </c>
       <c r="E5">
-        <v>0.419</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.4229807551929007</v>
+        <v>-0.4229807551931613</v>
       </c>
       <c r="C6">
-        <v>-0.1123292608606875</v>
+        <v>-0.1123292608612409</v>
       </c>
       <c r="D6">
-        <v>0.4365383224524497</v>
+        <v>0.4365383224529185</v>
       </c>
       <c r="E6">
-        <v>0.163</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.4701741882045106</v>
+        <v>-0.4701741882054298</v>
       </c>
       <c r="C7">
-        <v>0.3750450799152611</v>
+        <v>0.3750450799149429</v>
       </c>
       <c r="D7">
-        <v>0.6755381129311631</v>
+        <v>0.6755381129309831</v>
       </c>
       <c r="E7">
-        <v>0.024</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="8">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>-0.7404817640219803</v>
+        <v>0.7404817640221231</v>
       </c>
       <c r="C8">
-        <v>0.01920165253782266</v>
+        <v>0.01920165253809789</v>
       </c>
       <c r="D8">
-        <v>0.7539379063881196</v>
+        <v>0.7539379063877548</v>
       </c>
       <c r="E8">
         <v>0.028</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.05226901148956389</v>
+        <v>0.05226901148953931</v>
       </c>
       <c r="C9">
-        <v>-0.00274058546134488</v>
+        <v>-0.002740585461033557</v>
       </c>
       <c r="D9">
-        <v>0.01010995508214724</v>
+        <v>0.01010995508217644</v>
       </c>
       <c r="E9">
-        <v>0.955</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="10">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>-0.4795859864002908</v>
+        <v>0.4795859863998467</v>
       </c>
       <c r="C10">
-        <v>0.1065547012956507</v>
+        <v>0.1065547012961054</v>
       </c>
       <c r="D10">
-        <v>0.172550632561351</v>
+        <v>0.1725506325610269</v>
       </c>
       <c r="E10">
-        <v>0.524</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.3760830786964978</v>
+        <v>-0.3760830786959676</v>
       </c>
       <c r="C11">
-        <v>-0.357111997447203</v>
+        <v>-0.3571119974478048</v>
       </c>
       <c r="D11">
-        <v>0.7663509956603941</v>
+        <v>0.766350995660333</v>
       </c>
       <c r="E11">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="12">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>-0.1334594612363086</v>
+        <v>0.1334594612369603</v>
       </c>
       <c r="C12">
-        <v>-0.2103117977661929</v>
+        <v>-0.2103117977656937</v>
       </c>
       <c r="D12">
-        <v>0.0534909613360639</v>
+        <v>0.05349096133587324</v>
       </c>
       <c r="E12">
-        <v>0.835</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="13">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.2849303152541588</v>
+        <v>-0.2849303152540716</v>
       </c>
       <c r="C13">
-        <v>-0.1429653959101582</v>
+        <v>-0.1429653959106206</v>
       </c>
       <c r="D13">
-        <v>0.458930551154582</v>
+        <v>0.4589305511548598</v>
       </c>
       <c r="E13">
-        <v>0.184</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="14">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.3426916956049891</v>
+        <v>-0.3426916956044258</v>
       </c>
       <c r="C14">
-        <v>-0.4546701292324677</v>
+        <v>-0.454670129233081</v>
       </c>
       <c r="D14">
-        <v>0.2276134371634574</v>
+        <v>0.2276134371635191</v>
       </c>
       <c r="E14">
-        <v>0.45</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="15">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>-0.2606171469661295</v>
+        <v>0.2606171469647735</v>
       </c>
       <c r="C15">
-        <v>0.2768910446300552</v>
+        <v>0.2768910446305638</v>
       </c>
       <c r="D15">
-        <v>0.09600729119409472</v>
+        <v>0.09600729119394517</v>
       </c>
       <c r="E15">
-        <v>0.762</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="16">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>-0.2643546266821755</v>
+        <v>0.2643546266808076</v>
       </c>
       <c r="C16">
-        <v>0.281423043592155</v>
+        <v>0.2814230435926706</v>
       </c>
       <c r="D16">
-        <v>0.09730195429717629</v>
+        <v>0.09730195429702616</v>
       </c>
       <c r="E16">
-        <v>0.773</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="17">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>-0.1211207258301246</v>
+        <v>0.121120725830106</v>
       </c>
       <c r="C17">
-        <v>0.1113717287967179</v>
+        <v>0.1113717287970815</v>
       </c>
       <c r="D17">
-        <v>0.04841217326507526</v>
+        <v>0.04841217326531713</v>
       </c>
       <c r="E17">
-        <v>0.872</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="18">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.3693645930031829</v>
+        <v>-0.3693645930043132</v>
       </c>
       <c r="C18">
-        <v>0.04510336147992625</v>
+        <v>0.0451033614794319</v>
       </c>
       <c r="D18">
-        <v>0.05856822458798791</v>
+        <v>0.05856822458826327</v>
       </c>
       <c r="E18">
-        <v>0.8080000000000001</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="19">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>-0.3105178652448363</v>
+        <v>0.3105178652444515</v>
       </c>
       <c r="C19">
-        <v>0.07275501344718306</v>
+        <v>0.07275501344748682</v>
       </c>
       <c r="D19">
-        <v>0.1075057500406661</v>
+        <v>0.1075057500403531</v>
       </c>
       <c r="E19">
-        <v>0.6929999999999999</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="20">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B20">
-        <v>-0.7547884321560586</v>
+        <v>0.7547884321561312</v>
       </c>
       <c r="C20">
-        <v>0.03798430897491091</v>
+        <v>0.0379843089753607</v>
       </c>
       <c r="D20">
-        <v>0.8277816680154342</v>
+        <v>0.8277816680147109</v>
       </c>
       <c r="E20">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="21">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>-0.2643546266821755</v>
+        <v>0.2643546266808076</v>
       </c>
       <c r="C21">
-        <v>0.281423043592155</v>
+        <v>0.2814230435926706</v>
       </c>
       <c r="D21">
-        <v>0.09730195429717622</v>
+        <v>0.09730195429702619</v>
       </c>
       <c r="E21">
-        <v>0.773</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="22">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.2427784223839761</v>
+        <v>-0.2427784223839122</v>
       </c>
       <c r="C22">
-        <v>0.1467064939798079</v>
+        <v>0.1467064939798264</v>
       </c>
       <c r="D22">
-        <v>0.07557678054250196</v>
+        <v>0.07557678054229511</v>
       </c>
       <c r="E22">
-        <v>0.772</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="23">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B23">
-        <v>-0.03270639782587827</v>
+        <v>0.03270639782611298</v>
       </c>
       <c r="C23">
-        <v>-0.05464428016597489</v>
+        <v>-0.05464428016577047</v>
       </c>
       <c r="D23">
-        <v>0.03995707221862575</v>
+        <v>0.03995707221829031</v>
       </c>
       <c r="E23">
-        <v>0.867</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="24">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.4316669698790239</v>
+        <v>-0.4316669698782639</v>
       </c>
       <c r="C24">
-        <v>-0.4472344251442743</v>
+        <v>-0.4472344251450801</v>
       </c>
       <c r="D24">
-        <v>0.2497328288640368</v>
+        <v>0.2497328288641196</v>
       </c>
       <c r="E24">
-        <v>0.327</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="25">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.2492088354416716</v>
+        <v>-0.249208835441392</v>
       </c>
       <c r="C25">
-        <v>-0.2188585407090139</v>
+        <v>-0.218858540709321</v>
       </c>
       <c r="D25">
-        <v>0.5418314569291437</v>
+        <v>0.5418314569287526</v>
       </c>
       <c r="E25">
-        <v>0.09</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="26">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.3341424044047021</v>
+        <v>-0.3341424044042572</v>
       </c>
       <c r="C26">
-        <v>-0.2957212377449477</v>
+        <v>-0.295721237745492</v>
       </c>
       <c r="D26">
-        <v>0.3482893574173983</v>
+        <v>0.3482893574173903</v>
       </c>
       <c r="E26">
-        <v>0.244</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="27">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B27">
-        <v>-0.2066343513885714</v>
+        <v>0.2066343513886889</v>
       </c>
       <c r="C27">
-        <v>0.009054505141665375</v>
+        <v>0.009054505141976877</v>
       </c>
       <c r="D27">
-        <v>0.1408685518776322</v>
+        <v>0.1408685518776427</v>
       </c>
       <c r="E27">
-        <v>0.622</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="28">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.4615709175807421</v>
+        <v>-0.461570917582074</v>
       </c>
       <c r="C28">
-        <v>0.8616846778610134</v>
+        <v>0.8616846778610558</v>
       </c>
       <c r="D28">
-        <v>0.7328181259147055</v>
+        <v>0.7328181259143663</v>
       </c>
       <c r="E28">
-        <v>0.111</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="29">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.1501915939893392</v>
+        <v>-0.1501915939891585</v>
       </c>
       <c r="C29">
-        <v>-0.1735400618855631</v>
+        <v>-0.1735400618858681</v>
       </c>
       <c r="D29">
-        <v>0.2328146219835534</v>
+        <v>0.2328146219836371</v>
       </c>
       <c r="E29">
-        <v>0.38</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="30">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.3089439633721679</v>
+        <v>-0.3089439633717526</v>
       </c>
       <c r="C30">
-        <v>-0.3594760278642501</v>
+        <v>-0.3594760278648134</v>
       </c>
       <c r="D30">
-        <v>0.3971854088791543</v>
+        <v>0.3971854088793918</v>
       </c>
       <c r="E30">
-        <v>0.238</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="31">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B31">
-        <v>-0.0223483546536937</v>
+        <v>0.02234835465379559</v>
       </c>
       <c r="C31">
-        <v>-0.09994029669534675</v>
+        <v>-0.099940296695593</v>
       </c>
       <c r="D31">
-        <v>0.2746105385816485</v>
+        <v>0.2746105385821523</v>
       </c>
       <c r="E31">
-        <v>0.376</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="32">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B32">
-        <v>-0.1528389316290341</v>
+        <v>0.1528389316291389</v>
       </c>
       <c r="C32">
-        <v>-0.04198456210865911</v>
+        <v>-0.04198456210864732</v>
       </c>
       <c r="D32">
-        <v>0.1373204436038023</v>
+        <v>0.1373204436038018</v>
       </c>
       <c r="E32">
-        <v>0.655</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="33">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.4615709175807421</v>
+        <v>-0.461570917582074</v>
       </c>
       <c r="C33">
-        <v>0.8616846778610134</v>
+        <v>0.8616846778610558</v>
       </c>
       <c r="D33">
-        <v>0.7328181259147051</v>
+        <v>0.732818125914366</v>
       </c>
       <c r="E33">
-        <v>0.111</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.3148122146253192</v>
+        <v>-0.3148122146247513</v>
       </c>
       <c r="C34">
-        <v>-0.06306832406339444</v>
+        <v>-0.06306832406354158</v>
       </c>
       <c r="D34">
-        <v>0.06502546836432836</v>
+        <v>0.06502546836395089</v>
       </c>
       <c r="E34">
-        <v>0.802</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="35">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.1073443341746387</v>
+        <v>-0.1073443341737971</v>
       </c>
       <c r="C35">
-        <v>-0.1728511195951845</v>
+        <v>-0.1728511195950562</v>
       </c>
       <c r="D35">
-        <v>0.06746385081559546</v>
+        <v>0.06746385081515287</v>
       </c>
       <c r="E35">
-        <v>0.8090000000000001</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="36">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B36">
-        <v>-0.1840522448930357</v>
+        <v>0.1840522448937415</v>
       </c>
       <c r="C36">
-        <v>-0.2093769432631381</v>
+        <v>-0.209376943262537</v>
       </c>
       <c r="D36">
-        <v>0.05190861934176557</v>
+        <v>0.05190861934159276</v>
       </c>
       <c r="E36">
-        <v>0.897</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="37">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.3538895327043827</v>
+        <v>-0.3538895327037865</v>
       </c>
       <c r="C37">
-        <v>-0.3483047325953398</v>
+        <v>-0.3483047325959031</v>
       </c>
       <c r="D37">
-        <v>0.3653647561047793</v>
+        <v>0.3653647561046472</v>
       </c>
       <c r="E37">
-        <v>0.242</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="38">
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.2448706842124523</v>
+        <v>-0.2448706842114136</v>
       </c>
       <c r="C38">
-        <v>0.02450889700253701</v>
+        <v>0.02450889700267542</v>
       </c>
       <c r="D38">
-        <v>0.02485387158382792</v>
+        <v>0.0248538715836101</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B39">
-        <v>-0.4583693940908107</v>
+        <v>0.4583693940910137</v>
       </c>
       <c r="C39">
-        <v>0.02652177468087371</v>
+        <v>0.02652177468148937</v>
       </c>
       <c r="D39">
-        <v>0.3013815836061481</v>
+        <v>0.3013815836063542</v>
       </c>
       <c r="E39">
-        <v>0.322</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="40">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.0781612313534394</v>
+        <v>-0.07816123135253004</v>
       </c>
       <c r="C40">
-        <v>-0.06639550053917583</v>
+        <v>-0.06639550053885759</v>
       </c>
       <c r="D40">
-        <v>0.01332957428325715</v>
+        <v>0.01332957428303802</v>
       </c>
       <c r="E40">
-        <v>0.952</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="41">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.1734847282352627</v>
+        <v>-0.1734847282342793</v>
       </c>
       <c r="C41">
-        <v>-0.01441689400544915</v>
+        <v>-0.01441689400523374</v>
       </c>
       <c r="D41">
-        <v>0.01873187755164661</v>
+        <v>0.01873187755142528</v>
       </c>
       <c r="E41">
-        <v>0.96</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="42">
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.3426916956049891</v>
+        <v>-0.3426916956044258</v>
       </c>
       <c r="C43">
-        <v>-0.4546701292324677</v>
+        <v>-0.454670129233081</v>
       </c>
       <c r="D43">
-        <v>0.2276134371634574</v>
+        <v>0.2276134371635193</v>
       </c>
       <c r="E43">
-        <v>0.45</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="44">
@@ -1183,16 +1183,16 @@
         </is>
       </c>
       <c r="B44">
-        <v>-1.129045391451661</v>
+        <v>1.129045391452157</v>
       </c>
       <c r="C44">
-        <v>-0.07536738561307085</v>
+        <v>-0.07536738561287684</v>
       </c>
       <c r="D44">
-        <v>0.5222042290789846</v>
+        <v>0.5222042290790535</v>
       </c>
       <c r="E44">
-        <v>0.244</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         </is>
       </c>
       <c r="B45">
-        <v>-0.1840522448930357</v>
+        <v>0.1840522448937415</v>
       </c>
       <c r="C45">
-        <v>-0.2093769432631381</v>
+        <v>-0.209376943262537</v>
       </c>
       <c r="D45">
-        <v>0.05190861934176557</v>
+        <v>0.05190861934159276</v>
       </c>
       <c r="E45">
-        <v>0.897</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="46">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.6625684827583406</v>
+        <v>-0.6625684827593611</v>
       </c>
       <c r="C46">
-        <v>-0.0642350456073801</v>
+        <v>-0.06423504560834171</v>
       </c>
       <c r="D46">
-        <v>0.1877788254277558</v>
+        <v>0.1877788254283221</v>
       </c>
       <c r="E46">
-        <v>0.524</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="47">
@@ -1240,16 +1240,16 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.1919198351300131</v>
+        <v>-0.1919198351300258</v>
       </c>
       <c r="C47">
-        <v>0.0187715981717202</v>
+        <v>0.01877159817163148</v>
       </c>
       <c r="D47">
-        <v>0.06534818715541262</v>
+        <v>0.06534818715533687</v>
       </c>
       <c r="E47">
-        <v>0.803</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="48">
@@ -1259,16 +1259,16 @@
         </is>
       </c>
       <c r="B48">
-        <v>-0.1236407439970431</v>
+        <v>0.1236407439976348</v>
       </c>
       <c r="C48">
-        <v>-0.1336358298676139</v>
+        <v>-0.1336358298670917</v>
       </c>
       <c r="D48">
-        <v>0.03577853995654037</v>
+        <v>0.03577853995639497</v>
       </c>
       <c r="E48">
-        <v>0.903</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="49">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="B49">
-        <v>-0.3122176586417996</v>
+        <v>0.3122176586415094</v>
       </c>
       <c r="C49">
-        <v>0.05900640538142144</v>
+        <v>0.05900640538172566</v>
       </c>
       <c r="D49">
-        <v>0.1475053816546562</v>
+        <v>0.1475053816543453</v>
       </c>
       <c r="E49">
         <v>0.592</v>
@@ -1297,16 +1297,16 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.4063739988380328</v>
+        <v>-0.4063739988373288</v>
       </c>
       <c r="C50">
-        <v>-0.4493481702235286</v>
+        <v>-0.4493481702242799</v>
       </c>
       <c r="D50">
-        <v>0.5040006016391257</v>
+        <v>0.5040006016392921</v>
       </c>
       <c r="E50">
-        <v>0.128</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="51">
@@ -1316,13 +1316,13 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.1579659907491569</v>
+        <v>-0.1579659907487152</v>
       </c>
       <c r="C51">
-        <v>-0.3551581932815878</v>
+        <v>-0.3551581932820582</v>
       </c>
       <c r="D51">
-        <v>0.2279378501867378</v>
+        <v>0.2279378501868384</v>
       </c>
       <c r="E51">
         <v>0.366</v>
@@ -1348,16 +1348,16 @@
         </is>
       </c>
       <c r="B53">
-        <v>-0.2643546266821755</v>
+        <v>0.2643546266808076</v>
       </c>
       <c r="C53">
-        <v>0.281423043592155</v>
+        <v>0.2814230435926706</v>
       </c>
       <c r="D53">
-        <v>0.09730195429717629</v>
+        <v>0.09730195429702616</v>
       </c>
       <c r="E53">
-        <v>0.773</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="54">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.1760789233276121</v>
+        <v>-0.1760789233267999</v>
       </c>
       <c r="C54">
-        <v>0.005904928925699961</v>
+        <v>0.00590492892587382</v>
       </c>
       <c r="D54">
-        <v>0.0200134018304038</v>
+        <v>0.02001340183021616</v>
       </c>
       <c r="E54">
         <v>0.954</v>
@@ -1386,16 +1386,16 @@
         </is>
       </c>
       <c r="B55">
-        <v>-0.217655684680384</v>
+        <v>0.2176556846800704</v>
       </c>
       <c r="C55">
-        <v>0.127299094737157</v>
+        <v>0.1272990947376145</v>
       </c>
       <c r="D55">
-        <v>0.1500891428263479</v>
+        <v>0.150089142826242</v>
       </c>
       <c r="E55">
-        <v>0.615</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="56">
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="B56">
-        <v>-0.1840522448930357</v>
+        <v>0.1840522448937415</v>
       </c>
       <c r="C56">
-        <v>-0.2093769432631381</v>
+        <v>-0.209376943262537</v>
       </c>
       <c r="D56">
-        <v>0.05190861934176559</v>
+        <v>0.05190861934159276</v>
       </c>
       <c r="E56">
-        <v>0.897</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="57">
@@ -1424,16 +1424,16 @@
         </is>
       </c>
       <c r="B57">
-        <v>-0.223331523910925</v>
+        <v>0.2233315239106635</v>
       </c>
       <c r="C57">
-        <v>0.04720923839389451</v>
+        <v>0.04720923839428966</v>
       </c>
       <c r="D57">
-        <v>0.1192959368649557</v>
+        <v>0.1192959368647401</v>
       </c>
       <c r="E57">
-        <v>0.6909999999999999</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1443,16 +1443,16 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.2611240510062219</v>
+        <v>-0.2611240510075185</v>
       </c>
       <c r="C58">
-        <v>0.688850961915328</v>
+        <v>0.6888509619155003</v>
       </c>
       <c r="D58">
-        <v>0.6433269210409132</v>
+        <v>0.6433269210409729</v>
       </c>
       <c r="E58">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="59">
@@ -1462,16 +1462,16 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.4615709175807421</v>
+        <v>-0.461570917582074</v>
       </c>
       <c r="C59">
-        <v>0.8616846778610134</v>
+        <v>0.8616846778610558</v>
       </c>
       <c r="D59">
-        <v>0.7328181259147051</v>
+        <v>0.7328181259143663</v>
       </c>
       <c r="E59">
-        <v>0.111</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="60">
@@ -1481,13 +1481,13 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.2448706842124523</v>
+        <v>-0.2448706842114136</v>
       </c>
       <c r="C60">
-        <v>0.02450889700253701</v>
+        <v>0.02450889700267542</v>
       </c>
       <c r="D60">
-        <v>0.0248538715838279</v>
+        <v>0.02485387158361011</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -1500,16 +1500,16 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.07749329695324522</v>
+        <v>-0.07749329695316112</v>
       </c>
       <c r="C61">
-        <v>-0.02237862834111992</v>
+        <v>-0.02237862834119587</v>
       </c>
       <c r="D61">
-        <v>0.04977783528957928</v>
+        <v>0.04977783528935517</v>
       </c>
       <c r="E61">
-        <v>0.838</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="62">
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.3196261320625189</v>
+        <v>-0.3196261320626479</v>
       </c>
       <c r="C62">
-        <v>0.07259918286390775</v>
+        <v>0.07259918286365458</v>
       </c>
       <c r="D62">
-        <v>0.5747732626146087</v>
+        <v>0.5747732626140394</v>
       </c>
       <c r="E62">
-        <v>0.079</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.2448706842124523</v>
+        <v>-0.2448706842114136</v>
       </c>
       <c r="C63">
-        <v>0.02450889700253701</v>
+        <v>0.02450889700267542</v>
       </c>
       <c r="D63">
-        <v>0.02485387158382793</v>
+        <v>0.02485387158361005</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.15172619267346</v>
+        <v>-0.1517261926733259</v>
       </c>
       <c r="C64">
-        <v>0.02727749244750867</v>
+        <v>0.02727749244758466</v>
       </c>
       <c r="D64">
-        <v>0.06085243379031348</v>
+        <v>0.06085243378991929</v>
       </c>
       <c r="E64">
-        <v>0.8110000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1576,16 +1576,16 @@
         </is>
       </c>
       <c r="B65">
-        <v>-0.1855062075132444</v>
+        <v>0.1855062075139126</v>
       </c>
       <c r="C65">
-        <v>-0.2004904716668121</v>
+        <v>-0.2004904716662126</v>
       </c>
       <c r="D65">
-        <v>0.05076834240559111</v>
+        <v>0.05076834240542106</v>
       </c>
       <c r="E65">
-        <v>0.876</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="66">
@@ -1595,16 +1595,16 @@
         </is>
       </c>
       <c r="B66">
-        <v>-0.1242773578041658</v>
+        <v>0.1242773578038304</v>
       </c>
       <c r="C66">
-        <v>0.02977958188621187</v>
+        <v>0.02977958188649103</v>
       </c>
       <c r="D66">
-        <v>0.04555877098653599</v>
+        <v>0.04555877098647255</v>
       </c>
       <c r="E66">
-        <v>0.841</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="67">
@@ -1614,16 +1614,16 @@
         </is>
       </c>
       <c r="B67">
-        <v>-0.1601016003685496</v>
+        <v>0.160101600367981</v>
       </c>
       <c r="C67">
-        <v>0.142103376527634</v>
+        <v>0.1421033765280705</v>
       </c>
       <c r="D67">
-        <v>0.07838002914437382</v>
+        <v>0.07838002914436343</v>
       </c>
       <c r="E67">
-        <v>0.775</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="68">
@@ -1633,16 +1633,16 @@
         </is>
       </c>
       <c r="B68">
-        <v>-0.3710885862667652</v>
+        <v>0.3710885862658008</v>
       </c>
       <c r="C68">
-        <v>0.200059404935803</v>
+        <v>0.200059404936226</v>
       </c>
       <c r="D68">
-        <v>0.1104406579518837</v>
+        <v>0.1104406579516481</v>
       </c>
       <c r="E68">
-        <v>0.6870000000000001</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="69">
@@ -1652,16 +1652,16 @@
         </is>
       </c>
       <c r="B69">
-        <v>-0.5480211298943287</v>
+        <v>0.5480211298946605</v>
       </c>
       <c r="C69">
-        <v>-0.1045501234784871</v>
+        <v>-0.1045501234782975</v>
       </c>
       <c r="D69">
-        <v>0.5793064361628933</v>
+        <v>0.5793064361627668</v>
       </c>
       <c r="E69">
-        <v>0.068</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="70">
@@ -1671,16 +1671,16 @@
         </is>
       </c>
       <c r="B70">
-        <v>-0.05879722518343351</v>
+        <v>0.05879722518316572</v>
       </c>
       <c r="C70">
-        <v>0.2050993015005848</v>
+        <v>0.2050993015009311</v>
       </c>
       <c r="D70">
-        <v>0.2450217976221684</v>
+        <v>0.2450217976227533</v>
       </c>
       <c r="E70">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="71">
@@ -1690,16 +1690,16 @@
         </is>
       </c>
       <c r="B71">
-        <v>-0.395754827039919</v>
+        <v>0.3957548270402656</v>
       </c>
       <c r="C71">
-        <v>-0.03152457958088679</v>
+        <v>-0.03152457958085025</v>
       </c>
       <c r="D71">
-        <v>0.2537966436850757</v>
+        <v>0.253796643685665</v>
       </c>
       <c r="E71">
-        <v>0.439</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="72">
@@ -1709,16 +1709,16 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.3247301098429641</v>
+        <v>-0.3247301098423002</v>
       </c>
       <c r="C72">
-        <v>-0.3558756881666727</v>
+        <v>-0.3558756881671918</v>
       </c>
       <c r="D72">
-        <v>0.5520850752881057</v>
+        <v>0.5520850752879145</v>
       </c>
       <c r="E72">
-        <v>0.11</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="73">
@@ -1728,16 +1728,16 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.1360869017856985</v>
+        <v>-0.1360869017848931</v>
       </c>
       <c r="C73">
-        <v>0.004773487652940644</v>
+        <v>0.004773487653183653</v>
       </c>
       <c r="D73">
-        <v>0.01399782333851844</v>
+        <v>0.01399782333836065</v>
       </c>
       <c r="E73">
-        <v>0.957</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="74">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="B74">
-        <v>-0.04072256840379129</v>
+        <v>0.04072256840312716</v>
       </c>
       <c r="C74">
-        <v>0.02049118169298693</v>
+        <v>0.02049118169308421</v>
       </c>
       <c r="D74">
-        <v>0.01562334083226534</v>
+        <v>0.01562334083218256</v>
       </c>
       <c r="E74">
-        <v>0.944</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="75">
@@ -1766,16 +1766,16 @@
         </is>
       </c>
       <c r="B75">
-        <v>0.2949998862730401</v>
+        <v>-0.2949998862730932</v>
       </c>
       <c r="C75">
-        <v>-0.1191285292805363</v>
+        <v>-0.119128529280946</v>
       </c>
       <c r="D75">
-        <v>0.4936587022039632</v>
+        <v>0.4936587022041294</v>
       </c>
       <c r="E75">
-        <v>0.126</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="76">
@@ -1785,16 +1785,16 @@
         </is>
       </c>
       <c r="B76">
-        <v>-0.2643546266821755</v>
+        <v>0.2643546266808076</v>
       </c>
       <c r="C76">
-        <v>0.281423043592155</v>
+        <v>0.2814230435926706</v>
       </c>
       <c r="D76">
-        <v>0.09730195429717618</v>
+        <v>0.09730195429702619</v>
       </c>
       <c r="E76">
-        <v>0.773</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="77">
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="B77">
-        <v>0.2146814371546082</v>
+        <v>-0.2146814371541533</v>
       </c>
       <c r="C77">
-        <v>-0.2217487169881664</v>
+        <v>-0.2217487169885545</v>
       </c>
       <c r="D77">
-        <v>0.2789122299498528</v>
+        <v>0.2789122299497471</v>
       </c>
       <c r="E77">
-        <v>0.349</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="78">
@@ -1823,16 +1823,16 @@
         </is>
       </c>
       <c r="B78">
-        <v>-0.6252976935397724</v>
+        <v>0.6252976935400029</v>
       </c>
       <c r="C78">
-        <v>0.03310899071650778</v>
+        <v>0.03310899071722098</v>
       </c>
       <c r="D78">
-        <v>0.3053959123988556</v>
+        <v>0.3053959123989532</v>
       </c>
       <c r="E78">
-        <v>0.275</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="79">
@@ -1842,16 +1842,16 @@
         </is>
       </c>
       <c r="B79">
-        <v>-0.1759703994798419</v>
+        <v>0.1759703994801227</v>
       </c>
       <c r="C79">
-        <v>-0.1148408480423889</v>
+        <v>-0.1148408480421888</v>
       </c>
       <c r="D79">
-        <v>0.1968307266127059</v>
+        <v>0.1968307266122421</v>
       </c>
       <c r="E79">
-        <v>0.486</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="80">
@@ -1861,16 +1861,16 @@
         </is>
       </c>
       <c r="B80">
-        <v>0.4615709175807421</v>
+        <v>-0.461570917582074</v>
       </c>
       <c r="C80">
-        <v>0.8616846778610134</v>
+        <v>0.8616846778610558</v>
       </c>
       <c r="D80">
-        <v>0.7328181259147051</v>
+        <v>0.7328181259143663</v>
       </c>
       <c r="E80">
-        <v>0.111</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="81">
@@ -1880,16 +1880,16 @@
         </is>
       </c>
       <c r="B81">
-        <v>-1.129045391451661</v>
+        <v>1.129045391452157</v>
       </c>
       <c r="C81">
-        <v>-0.07536738561307085</v>
+        <v>-0.07536738561287684</v>
       </c>
       <c r="D81">
-        <v>0.5222042290789847</v>
+        <v>0.5222042290790535</v>
       </c>
       <c r="E81">
-        <v>0.244</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="82">
@@ -1899,16 +1899,16 @@
         </is>
       </c>
       <c r="B82">
-        <v>-0.4028598382752401</v>
+        <v>0.4028598382755724</v>
       </c>
       <c r="C82">
-        <v>0.0150469660567713</v>
+        <v>0.01504696605748423</v>
       </c>
       <c r="D82">
-        <v>0.1224872918142613</v>
+        <v>0.1224872918144667</v>
       </c>
       <c r="E82">
-        <v>0.641</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="83">
@@ -1918,16 +1918,16 @@
         </is>
       </c>
       <c r="B83">
-        <v>0.2671060966456218</v>
+        <v>-0.2671060966449105</v>
       </c>
       <c r="C83">
-        <v>0.06359256499363387</v>
+        <v>0.06359256499370892</v>
       </c>
       <c r="D83">
-        <v>0.03347523812098834</v>
+        <v>0.03347523812075177</v>
       </c>
       <c r="E83">
-        <v>0.89</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="84">
@@ -1937,16 +1937,16 @@
         </is>
       </c>
       <c r="B84">
-        <v>0.3426916956049891</v>
+        <v>-0.3426916956044258</v>
       </c>
       <c r="C84">
-        <v>-0.4546701292324677</v>
+        <v>-0.454670129233081</v>
       </c>
       <c r="D84">
-        <v>0.2276134371634573</v>
+        <v>0.2276134371635193</v>
       </c>
       <c r="E84">
-        <v>0.45</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="85">
@@ -1956,16 +1956,16 @@
         </is>
       </c>
       <c r="B85">
-        <v>0.07775942953592187</v>
+        <v>-0.07775942953625058</v>
       </c>
       <c r="C85">
-        <v>0.3162249062072002</v>
+        <v>0.3162249062073921</v>
       </c>
       <c r="D85">
-        <v>0.3741830702969855</v>
+        <v>0.3741830702974455</v>
       </c>
       <c r="E85">
-        <v>0.215</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="86">
@@ -1975,16 +1975,16 @@
         </is>
       </c>
       <c r="B86">
-        <v>-0.2693451086322956</v>
+        <v>0.2693451086325431</v>
       </c>
       <c r="C86">
-        <v>0.06333808271388117</v>
+        <v>0.06333808271415009</v>
       </c>
       <c r="D86">
-        <v>0.08178632729477177</v>
+        <v>0.08178632729517914</v>
       </c>
       <c r="E86">
-        <v>0.767</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="87">
@@ -1994,16 +1994,16 @@
         </is>
       </c>
       <c r="B87">
-        <v>0.4824994609402785</v>
+        <v>-0.4824994609410356</v>
       </c>
       <c r="C87">
-        <v>0.01562097655660512</v>
+        <v>0.0156209765560389</v>
       </c>
       <c r="D87">
-        <v>0.1738201181247525</v>
+        <v>0.1738201181252016</v>
       </c>
       <c r="E87">
-        <v>0.52</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="88">
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="B88">
-        <v>-0.8282612372337678</v>
+        <v>0.8282612372339991</v>
       </c>
       <c r="C88">
-        <v>0.02037229269309395</v>
+        <v>0.02037229269338552</v>
       </c>
       <c r="D88">
-        <v>0.7176101627914253</v>
+        <v>0.7176101627912282</v>
       </c>
       <c r="E88">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="89">
@@ -2032,16 +2032,16 @@
         </is>
       </c>
       <c r="B89">
-        <v>0.02752324761553808</v>
+        <v>-0.02752324761550045</v>
       </c>
       <c r="C89">
-        <v>-0.1193733035730312</v>
+        <v>-0.119373303572944</v>
       </c>
       <c r="D89">
-        <v>0.08191556526103752</v>
+        <v>0.08191556526069908</v>
       </c>
       <c r="E89">
-        <v>0.781</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="90">
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="B90">
-        <v>0.4029736295741293</v>
+        <v>-0.4029736295738036</v>
       </c>
       <c r="C90">
-        <v>-0.2760297775193972</v>
+        <v>-0.2760297775199682</v>
       </c>
       <c r="D90">
-        <v>0.6011543896563248</v>
+        <v>0.6011543896562026</v>
       </c>
       <c r="E90">
-        <v>0.075</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="91">
@@ -2070,16 +2070,16 @@
         </is>
       </c>
       <c r="B91">
-        <v>-0.5890570212072125</v>
+        <v>0.5890570212073599</v>
       </c>
       <c r="C91">
-        <v>0.09189662685240564</v>
+        <v>0.09189662685333183</v>
       </c>
       <c r="D91">
-        <v>0.1481508400364351</v>
+        <v>0.1481508400365478</v>
       </c>
       <c r="E91">
-        <v>0.671</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="92">
@@ -2089,16 +2089,16 @@
         </is>
       </c>
       <c r="B92">
-        <v>0.1530448919481287</v>
+        <v>-0.1530448919485692</v>
       </c>
       <c r="C92">
-        <v>0.131785820442894</v>
+        <v>0.1317858204428522</v>
       </c>
       <c r="D92">
-        <v>0.07410750484659973</v>
+        <v>0.07410750484680401</v>
       </c>
       <c r="E92">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="93">
@@ -2108,16 +2108,16 @@
         </is>
       </c>
       <c r="B93">
-        <v>-0.2631900821600657</v>
+        <v>0.2631900821588732</v>
       </c>
       <c r="C93">
-        <v>0.2524323860718576</v>
+        <v>0.2524323860723301</v>
       </c>
       <c r="D93">
-        <v>0.09823195444053652</v>
+        <v>0.0982319544403885</v>
       </c>
       <c r="E93">
-        <v>0.71</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="94">
@@ -2127,16 +2127,16 @@
         </is>
       </c>
       <c r="B94">
-        <v>0.1812620507220588</v>
+        <v>-0.1812620507220311</v>
       </c>
       <c r="C94">
-        <v>0.3185069273127374</v>
+        <v>0.3185069273128431</v>
       </c>
       <c r="D94">
-        <v>0.1048622309433195</v>
+        <v>0.1048622309431332</v>
       </c>
       <c r="E94">
-        <v>0.675</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="95">
@@ -2146,16 +2146,16 @@
         </is>
       </c>
       <c r="B95">
-        <v>0.3318805577004497</v>
+        <v>-0.3318805576999005</v>
       </c>
       <c r="C95">
-        <v>-0.4397446047505147</v>
+        <v>-0.4397446047511069</v>
       </c>
       <c r="D95">
-        <v>0.2320766786689365</v>
+        <v>0.2320766786689952</v>
       </c>
       <c r="E95">
-        <v>0.351</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="96">
@@ -2165,16 +2165,16 @@
         </is>
       </c>
       <c r="B96">
-        <v>0.4845287702607501</v>
+        <v>-0.484528770260959</v>
       </c>
       <c r="C96">
-        <v>-0.216033847433777</v>
+        <v>-0.2160338474345084</v>
       </c>
       <c r="D96">
-        <v>0.4410947288633603</v>
+        <v>0.4410947288638929</v>
       </c>
       <c r="E96">
-        <v>0.194</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="97">
@@ -2184,16 +2184,16 @@
         </is>
       </c>
       <c r="B97">
-        <v>-0.3614210429757053</v>
+        <v>0.361421042975909</v>
       </c>
       <c r="C97">
-        <v>-0.08654611301765709</v>
+        <v>-0.08654611301763411</v>
       </c>
       <c r="D97">
-        <v>0.3934935663355624</v>
+        <v>0.3934935663354861</v>
       </c>
       <c r="E97">
-        <v>0.232</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="98">
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="B98">
-        <v>0.2448706842124523</v>
+        <v>-0.2448706842114136</v>
       </c>
       <c r="C98">
-        <v>0.02450889700253701</v>
+        <v>0.02450889700267542</v>
       </c>
       <c r="D98">
-        <v>0.02485387158382793</v>
+        <v>0.02485387158361003</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         </is>
       </c>
       <c r="B99">
-        <v>0.6857090169568772</v>
+        <v>-0.685709016957889</v>
       </c>
       <c r="C99">
-        <v>-0.07286436205516038</v>
+        <v>-0.07286436205615886</v>
       </c>
       <c r="D99">
-        <v>0.195416093719611</v>
+        <v>0.1954160937201642</v>
       </c>
       <c r="E99">
-        <v>0.55</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="100">
@@ -2241,16 +2241,16 @@
         </is>
       </c>
       <c r="B100">
-        <v>0.6826132597686793</v>
+        <v>-0.6826132597696873</v>
       </c>
       <c r="C100">
-        <v>-0.07051210486870201</v>
+        <v>-0.07051210486969516</v>
       </c>
       <c r="D100">
-        <v>0.1957686190169378</v>
+        <v>0.195768619017489</v>
       </c>
       <c r="E100">
-        <v>0.475</v>
+        <v>0.488</v>
       </c>
     </row>
   </sheetData>
